--- a/config/models.xlsx
+++ b/config/models.xlsx
@@ -1262,11 +1262,6 @@
           <t>openai_function_calling</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>maxOutputTokens</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>N</t>
@@ -1406,11 +1401,6 @@
       <c r="Y4" t="inlineStr">
         <is>
           <t>openai_function_calling</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>maxOutputTokens</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
